--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_GiaThanh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_GiaThanh.xlsx
@@ -722,6 +722,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -739,30 +763,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1106,39 +1106,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1183,58 +1183,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1259,23 +1259,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1332,7 +1332,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1361,7 +1361,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1419,7 +1419,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1508,7 +1508,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1566,7 +1566,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3311,13 +3311,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3329,6 +3322,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3372,39 +3372,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3449,58 +3449,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3525,23 +3525,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3567,7 +3567,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3598,7 +3598,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3627,7 +3627,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3656,7 +3656,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3743,7 +3743,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3774,7 +3774,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3861,7 +3861,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5577,6 +5577,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5588,13 +5595,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5638,39 +5638,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5715,58 +5715,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5791,23 +5791,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5833,7 +5833,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5864,7 +5864,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5893,7 +5893,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5922,7 +5922,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5951,7 +5951,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5980,7 +5980,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6009,7 +6009,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6040,7 +6040,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6069,7 +6069,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6098,7 +6098,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6127,7 +6127,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7843,6 +7843,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7854,13 +7861,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7904,39 +7904,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7981,58 +7981,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8057,23 +8057,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8099,7 +8099,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8130,7 +8130,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8159,7 +8159,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8188,7 +8188,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8217,7 +8217,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8246,7 +8246,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8275,7 +8275,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8306,7 +8306,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8335,7 +8335,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8364,7 +8364,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8393,7 +8393,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10109,6 +10109,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10120,13 +10127,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10170,39 +10170,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10247,58 +10247,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10323,23 +10323,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10365,7 +10365,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10396,7 +10396,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10425,7 +10425,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10454,7 +10454,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10483,7 +10483,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10512,7 +10512,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10541,7 +10541,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10572,7 +10572,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10601,7 +10601,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10630,7 +10630,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10659,7 +10659,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12375,6 +12375,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12386,13 +12393,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12403,8 +12403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12436,41 +12436,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12515,58 +12515,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12591,23 +12591,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12617,7 +12617,9 @@
       <c r="B6" s="61">
         <v>44854</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44855</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -12657,7 +12659,7 @@
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12688,7 +12690,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12717,7 +12719,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12746,7 +12748,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12775,7 +12777,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12804,7 +12806,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12833,7 +12835,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12864,7 +12866,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12893,7 +12895,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12922,7 +12924,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12951,7 +12953,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14667,6 +14669,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14678,13 +14687,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14728,39 +14730,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14805,58 +14807,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14881,23 +14883,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14923,7 +14925,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14954,7 +14956,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14983,7 +14985,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15012,7 +15014,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15041,7 +15043,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15070,7 +15072,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15099,7 +15101,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15130,7 +15132,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15159,7 +15161,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15188,7 +15190,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15217,7 +15219,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16933,6 +16935,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16944,13 +16953,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16994,39 +16996,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17071,58 +17073,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17147,23 +17149,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17189,7 +17191,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17220,7 +17222,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17249,7 +17251,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17278,7 +17280,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17307,7 +17309,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17336,7 +17338,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17365,7 +17367,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17396,7 +17398,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17425,7 +17427,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17454,7 +17456,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17483,7 +17485,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19199,6 +19201,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19210,13 +19219,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19260,39 +19262,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19337,58 +19339,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19413,23 +19415,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19455,7 +19457,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19486,7 +19488,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19515,7 +19517,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19544,7 +19546,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19573,7 +19575,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19602,7 +19604,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19631,7 +19633,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19662,7 +19664,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19691,7 +19693,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19720,7 +19722,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19749,7 +19751,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20980,13 +20982,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20998,6 +20993,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
